--- a/1_CoffeeMachine_TestCases.xlsx
+++ b/1_CoffeeMachine_TestCases.xlsx
@@ -1,48 +1,813 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiexin\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView windowWidth="22188" windowHeight="9707"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirements" sheetId="1" r:id="rId1"/>
+    <sheet name="Tese Cases" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Test case</t>
+  </si>
+  <si>
+    <t>Select black coffee option and verify that only black coffee is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino option and verify that only cappuccino is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte option and verify that only latte is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso option and verify that only espresso is dispensed</t>
+  </si>
+  <si>
+    <t>Select hot water option and verify that only hot water is dispensed</t>
+  </si>
+  <si>
+    <t>Select hot milk option and verify that only hot milk is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with extra sugar and verify that black coffee with extra sugar is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with extra foam and verify that cappuccino with extra foam is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with extra syrup and verify that latte with extra syrup is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with extra shot and verify that espresso with extra shot is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with low-fat milk and verify that black coffee with low-fat milk is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with almond milk and verify that cappuccino with almond milk is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with soy milk and verify that latte with soy milk is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with coconut milk and verify that espresso with coconut milk is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with no sugar and verify that black coffee with no sugar is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with no foam and verify that cappuccino with no foam is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with no syrup and verify that latte with no syrup is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with no shot and verify that espresso with no shot is dispensed</t>
+  </si>
+  <si>
+    <t>Select hot water with added lemon and verify that hot water with added lemon is dispensed</t>
+  </si>
+  <si>
+    <t>Select hot milk with added cinnamon and verify that hot milk with added cinnamon is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with added chocolate and verify that black coffee with added chocolate is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added vanilla and verify that cappuccino with added vanilla is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added hazelnut and verify that latte with added hazelnut is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added peppermint and verify that espresso with added peppermint is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with added honey and verify that black coffee with added honey is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added caramel and verify that cappuccino with added caramel is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added ginger and verify that latte with added ginger is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added lavender and verify that espresso with added lavender is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with added coconut oil and verify that black coffee with added coconut oil is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added ghee and verify that cappuccino with added ghee is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added almond butter and verify that latte with added almond butter is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added macadamia nut oil and verify that espresso with added macadamia nut oil is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with added collagen and verify that black coffee with added collagen is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added MCT oil and verify that cappuccino with added MCT oil is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added protein powder and verify that latte with added protein powder is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added green tea extract and verify that espresso with added green tea extract is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with added turmeric and verify that black coffee with added turmeric is</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added matcha and verify that cappuccino with added matcha is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added chai spice and verify that latte with added chai spice is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added cinnamon and verify that espresso with added cinnamon is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with added ginger and verify that black coffee with added ginger is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added cardamom and verify that cappuccino with added cardamom is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added nutmeg and verify that latte with added nutmeg is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added cloves and verify that espresso with added cloves is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with added allspice and verify that black coffee with added allspice is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added anise and verify that cappuccino with added anise is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added star anise and verify that latte with added star anise is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added fennel and verify that espresso with added fennel is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with added coriander and verify that black coffee with added coriander is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added cumin and verify that cappuccino with added cumin is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added caraway and verify that latte with added caraway is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added juniper and verify that espresso with added juniper is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with added lavender and verify that black coffee with added lavender is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added rose and verify that cappuccino with added rose is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added vanilla and verify that latte with added vanilla is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added orange and verify that espresso with added orange is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with added peppermint and verify that black coffee with added peppermint is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added lemon and verify that cappuccino with added lemon is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added lime and verify that latte with added lime is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added grapefruit and verify that espresso with added grapefruit is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with added mint and verify that black coffee with added mint is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added basil and verify that cappuccino with added basil is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added rosemary and verify that latte with added rosemary is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added thyme and verify that espresso with added thyme is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with added oregano and verify that black coffee with added oregano is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added sage and verify that cappuccino with added sage is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added marjoram and verify that latte with added marjoram is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added cilantro and verify that espresso with added cilantro is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with added parsley and verify that black coffee with added parsley is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added dill and verify that cappuccino with added dill is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added tarragon and verify that latte with added tarragon is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added chives and verify that espresso with added chives is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added lavender and verify that cappuccino with added lavender is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added rose and verify that latte with added rose is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added vanilla and verify that espresso with added vanilla is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added maple syrup and verify that cappuccino with added maple syrup is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added agave and verify that latte with added agave is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added date syrup and verify that espresso with added date syrup is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with added coconut sugar and verify that black coffee with added coconut sugar is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added brown sugar and verify that cappuccino with added brown sugar is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added raw sugar and verify that latte with added raw sugar is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added stevia and verify that espresso with added stevia is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with added monk fruit and verify that black coffee with added monk fruit is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added xylitol and verify that cappuccino with added xylitol is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added erythritol and verify that latte with added erythritol is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added yacon syrup and verify that espresso with added yacon syrup is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with added sucanat and verify that black coffee with added sucanat is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added honey crystals and verify that cappuccino with added honey crystals is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added vanilla crystals and verify that latte with added vanilla crystals is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added maple crystals and verify that espresso with added maple crystals is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with added cinnamon crystals and verify that black coffee with added cinnamon crystals is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added ginger crystals and verify that cappuccino with added ginger crystals is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added cardamom crystals and verify that latte with added cardamom crystals is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added nutmeg crystals and verify that espresso with added nutmeg crystals is dispensed</t>
+  </si>
+  <si>
+    <t>Select black coffee with added allspice crystals and verify that black coffee with added allspice crystals is dispensed</t>
+  </si>
+  <si>
+    <t>Select cappuccino with added anise crystals and verify that cappuccino with added anise crystals is dispensed</t>
+  </si>
+  <si>
+    <t>Select latte with added star anise crystals and verify that latte with added star anise crystals is dispensed</t>
+  </si>
+  <si>
+    <t>Select espresso with added fennel crystals and verify that espresso with added fennel crystals is dispensed.</t>
+  </si>
+  <si>
+    <t>Scenario TID</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Test case id</t>
+  </si>
+  <si>
+    <t>Test case title</t>
+  </si>
+  <si>
+    <t>Pre condition</t>
+  </si>
+  <si>
+    <t>Steps to evaluate</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executed QA </t>
+  </si>
+  <si>
+    <t>TCS_001</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Id:, Pass:</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>Verify with valid username and pass, Dashboard page is displayed</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>1.
+2.
+3.</t>
+  </si>
+  <si>
+    <t>Dashboard page is loaded</t>
+  </si>
+  <si>
+    <t>same as expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Sajan</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9900FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9900FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -50,24 +815,416 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -116,7 +1273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -151,7 +1308,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,23 +1482,932 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="170.222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="15.15" spans="1:2">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="15.15" spans="1:2">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="15.15" spans="1:2">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="15.15" spans="1:2">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="15.15" spans="1:2">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" ht="15.15" spans="1:2">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" ht="15.15" spans="1:2">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="15.15" spans="1:2">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="15.15" spans="1:2">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="15.15" spans="1:2">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="15.15" spans="1:2">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="15.15" spans="1:2">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="15.15" spans="1:2">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" ht="15.15" spans="1:2">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="15.15" spans="1:2">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="15.15" spans="1:2">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" ht="15.15" spans="1:2">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="15.15" spans="1:2">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" ht="15.15" spans="1:2">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" ht="15.15" spans="1:2">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="15.15" spans="1:2">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" ht="15.15" spans="1:2">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" ht="15.15" spans="1:2">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" ht="15.15" spans="1:2">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" ht="15.15" spans="1:2">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" ht="15.15" spans="1:2">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" ht="15.15" spans="1:2">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="15.15" spans="1:2">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" ht="15.15" spans="1:2">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" ht="15.15" spans="1:2">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" ht="15.15" spans="1:2">
+      <c r="A32" s="9">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" ht="15.15" spans="1:2">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" ht="15.15" spans="1:2">
+      <c r="A34" s="9">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" ht="15.15" spans="1:2">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" ht="15.15" spans="1:2">
+      <c r="A36" s="9">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" ht="15.15" spans="1:2">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" ht="15.15" spans="1:2">
+      <c r="A38" s="9">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" ht="15.15" spans="1:2">
+      <c r="A39" s="9">
+        <v>39</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" ht="15.15" spans="1:2">
+      <c r="A40" s="9">
+        <v>40</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" ht="15.15" spans="1:2">
+      <c r="A41" s="9">
+        <v>41</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" ht="15.15" spans="1:2">
+      <c r="A42" s="9">
+        <v>42</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" ht="15.15" spans="1:2">
+      <c r="A43" s="9">
+        <v>43</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" ht="15.15" spans="1:2">
+      <c r="A44" s="9">
+        <v>44</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" ht="15.15" spans="1:2">
+      <c r="A45" s="9">
+        <v>45</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" ht="15.15" spans="1:2">
+      <c r="A46" s="9">
+        <v>46</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" ht="15.15" spans="1:2">
+      <c r="A47" s="9">
+        <v>47</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" ht="15.15" spans="1:2">
+      <c r="A48" s="9">
+        <v>48</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" ht="15.15" spans="1:2">
+      <c r="A49" s="9">
+        <v>49</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" ht="15.15" spans="1:2">
+      <c r="A50" s="9">
+        <v>50</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" ht="15.15" spans="1:2">
+      <c r="A51" s="9">
+        <v>51</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" ht="15.15" spans="1:2">
+      <c r="A52" s="9">
+        <v>52</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" ht="15.15" spans="1:2">
+      <c r="A53" s="9">
+        <v>53</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" ht="15.15" spans="1:2">
+      <c r="A54" s="9">
+        <v>54</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" ht="15.15" spans="1:2">
+      <c r="A55" s="9">
+        <v>55</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" ht="15.15" spans="1:2">
+      <c r="A56" s="9">
+        <v>56</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" ht="15.15" spans="1:2">
+      <c r="A57" s="9">
+        <v>57</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" ht="15.15" spans="1:2">
+      <c r="A58" s="9">
+        <v>58</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" ht="15.15" spans="1:2">
+      <c r="A59" s="9">
+        <v>59</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" ht="15.15" spans="1:2">
+      <c r="A60" s="9">
+        <v>60</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" ht="15.15" spans="1:2">
+      <c r="A61" s="9">
+        <v>61</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" ht="15.15" spans="1:2">
+      <c r="A62" s="9">
+        <v>62</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" ht="15.15" spans="1:2">
+      <c r="A63" s="9">
+        <v>63</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" ht="15.15" spans="1:2">
+      <c r="A64" s="9">
+        <v>64</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" ht="15.15" spans="1:2">
+      <c r="A65" s="9">
+        <v>65</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" ht="15.15" spans="1:2">
+      <c r="A66" s="9">
+        <v>66</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" ht="15.15" spans="1:2">
+      <c r="A67" s="9">
+        <v>67</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" ht="15.15" spans="1:2">
+      <c r="A68" s="9">
+        <v>68</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" ht="15.15" spans="1:2">
+      <c r="A69" s="9">
+        <v>69</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" ht="15.15" spans="1:2">
+      <c r="A70" s="9">
+        <v>70</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" ht="15.15" spans="1:2">
+      <c r="A71" s="9">
+        <v>71</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" ht="15.15" spans="1:2">
+      <c r="A72" s="9">
+        <v>72</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" ht="15.15" spans="1:2">
+      <c r="A73" s="9">
+        <v>73</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" ht="15.15" spans="1:2">
+      <c r="A74" s="9">
+        <v>74</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" ht="15.15" spans="1:2">
+      <c r="A75" s="9">
+        <v>76</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" ht="15.15" spans="1:2">
+      <c r="A76" s="9">
+        <v>77</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" ht="15.15" spans="1:2">
+      <c r="A77" s="9">
+        <v>78</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" ht="15.15" spans="1:2">
+      <c r="A78" s="9">
+        <v>79</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" ht="15.15" spans="1:2">
+      <c r="A79" s="9">
+        <v>80</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" ht="15.15" spans="1:2">
+      <c r="A80" s="9">
+        <v>81</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" ht="15.15" spans="1:2">
+      <c r="A81" s="9">
+        <v>82</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" ht="15.15" spans="1:2">
+      <c r="A82" s="9">
+        <v>83</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" ht="15.15" spans="1:2">
+      <c r="A83" s="9">
+        <v>84</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" ht="15.15" spans="1:2">
+      <c r="A84" s="9">
+        <v>85</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" ht="15.15" spans="1:2">
+      <c r="A85" s="9">
+        <v>86</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" ht="15.15" spans="1:2">
+      <c r="A86" s="9">
+        <v>87</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" ht="15.15" spans="1:2">
+      <c r="A87" s="9">
+        <v>88</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" ht="15.15" spans="1:2">
+      <c r="A88" s="9">
+        <v>89</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" ht="15.15" spans="1:2">
+      <c r="A89" s="9">
+        <v>90</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" ht="15.15" spans="1:2">
+      <c r="A90" s="9">
+        <v>91</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" ht="15.15" spans="1:2">
+      <c r="A91" s="9">
+        <v>92</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" ht="15.15" spans="1:2">
+      <c r="A92" s="9">
+        <v>93</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" ht="15.15" spans="1:2">
+      <c r="A93" s="9">
+        <v>94</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" ht="15.15" spans="1:2">
+      <c r="A94" s="9">
+        <v>95</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" ht="15.15" spans="1:2">
+      <c r="A95" s="9">
+        <v>96</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" ht="15.15" spans="1:2">
+      <c r="A96" s="9">
+        <v>97</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" ht="15.15" spans="1:2">
+      <c r="A97" s="9">
+        <v>98</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" ht="15.15" spans="1:2">
+      <c r="A98" s="9">
+        <v>99</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" ht="15.15" spans="1:2">
+      <c r="A99" s="9">
+        <v>100</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" ht="15.15" spans="1:2">
+      <c r="A100" s="9">
+        <v>101</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" ht="15.15" spans="1:2">
+      <c r="A101" s="9">
+        <v>102</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="11.6666666666667" customWidth="1"/>
+    <col min="2" max="3" width="13.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="10.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="41.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="35.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="22.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="21.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" ht="43.2" spans="1:11">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>